--- a/Manuscript/erin_temp_coding.xlsx
+++ b/Manuscript/erin_temp_coding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livemissouristate-my.sharepoint.com/personal/eri2005_missouristate_edu/Documents/RESEARCH/2 projects/Table-of-Doom/Manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C68C0A61-0F8D-A943-A873-B0E634218C6D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{29CE93E2-A788-CA4F-A4B7-563F43F11C00}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="13940" xr2:uid="{A280CE00-1F14-4C4F-A93B-92C44D7C3E36}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="587">
   <si>
     <t>STUFFID</t>
   </si>
@@ -1564,6 +1564,9 @@
     <t>Winter 2016</t>
   </si>
   <si>
+    <t>Lynott &amp; Connell (2009)</t>
+  </si>
+  <si>
     <t>Lynott &amp; Connell (2009; 2013)</t>
   </si>
   <si>
@@ -1676,6 +1679,114 @@
   </si>
   <si>
     <t>Wordlists</t>
+  </si>
+  <si>
+    <t>Everart</t>
+  </si>
+  <si>
+    <t>An edited book of corpus materials</t>
+  </si>
+  <si>
+    <t>Pronouns, Intesifiers, Reflexives, Word accent patterns, morph, syntax</t>
+  </si>
+  <si>
+    <t>Gast</t>
+  </si>
+  <si>
+    <t>Typological Database of Intensifiers and Reflexives</t>
+  </si>
+  <si>
+    <t>Intensifiers and reflexives</t>
+  </si>
+  <si>
+    <t>Diller</t>
+  </si>
+  <si>
+    <t>European Database of Descriptors of English Electronic Texts</t>
+  </si>
+  <si>
+    <t>De Smet (2005); Watson (1969)</t>
+  </si>
+  <si>
+    <t>An index of texts used in classic corpora</t>
+  </si>
+  <si>
+    <t>Title, author information, genre, publication date</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Fenson et al. (1994)</t>
+  </si>
+  <si>
+    <t>aoa, concrete, Iconicity</t>
+  </si>
+  <si>
+    <t>Davies</t>
+  </si>
+  <si>
+    <t>COCA: Corpus of Contemporary American English</t>
+  </si>
+  <si>
+    <t>Freq, morphemes, syntax, pos, semantic</t>
+  </si>
+  <si>
+    <t>Property items</t>
+  </si>
+  <si>
+    <t>modality, semantic</t>
+  </si>
+  <si>
+    <t>van Dantzg</t>
+  </si>
+  <si>
+    <t>Brysbaert, Stevens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aoa, concrete, </t>
+  </si>
+  <si>
+    <t>Dictionary, corpus anaysis</t>
+  </si>
+  <si>
+    <t>Brants</t>
+  </si>
+  <si>
+    <t>Sentences</t>
+  </si>
+  <si>
+    <t>TIGER Treebank</t>
+  </si>
+  <si>
+    <t>pos, syntax, Phrase categories, morpheme</t>
+  </si>
+  <si>
+    <t>Bickel</t>
+  </si>
+  <si>
+    <t>AUTOTYP</t>
+  </si>
+  <si>
+    <t>Database structure for fieldwork in linguistics</t>
+  </si>
+  <si>
+    <t>Spoken words, Fiction, Magazines, Newspapers, Academic journals</t>
+  </si>
+  <si>
+    <t>Baath</t>
+  </si>
+  <si>
+    <t>ChildFreq</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Tokens used to calculate children's word frequencies</t>
+  </si>
+  <si>
+    <t>freq, Gender</t>
   </si>
 </sst>
 </file>
@@ -2038,18 +2149,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EDA312-64E0-3D4B-BE88-44EDF993D6EA}">
-  <dimension ref="A1:BO113"/>
+  <dimension ref="A1:BO117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="8" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="18" width="10.83203125" style="1"/>
+    <col min="9" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="25.1640625" style="1" customWidth="1"/>
+    <col min="13" max="18" width="10.83203125" style="1"/>
     <col min="19" max="19" width="26.1640625" style="1" customWidth="1"/>
     <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -2294,13 +2407,13 @@
         <v>482</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
@@ -2309,12 +2422,12 @@
         <v>77</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:67" ht="112">
       <c r="B4" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>482</v>
@@ -2326,27 +2439,27 @@
         <v>71</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:67" ht="64">
       <c r="B5" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>501</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P5" s="1">
         <v>1</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>339</v>
@@ -2354,7 +2467,7 @@
     </row>
     <row r="6" spans="1:67" ht="64">
       <c r="B6" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I6" s="1">
         <v>834200</v>
@@ -2366,21 +2479,21 @@
         <v>1</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>77</v>
       </c>
       <c r="S6" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:67" ht="32">
       <c r="B7" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I7" s="1">
         <v>1354</v>
@@ -2389,13 +2502,13 @@
         <v>496</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>503</v>
@@ -2403,13 +2516,13 @@
     </row>
     <row r="8" spans="1:67" ht="96">
       <c r="B8" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>501</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P8" s="1">
         <v>1</v>
@@ -2418,21 +2531,21 @@
         <v>71</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:67" ht="48">
       <c r="B9" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>501</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P9" s="1">
         <v>1</v>
@@ -2441,12 +2554,12 @@
         <v>71</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:67" ht="48">
       <c r="B10" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I10" s="1">
         <v>1252</v>
@@ -2455,21 +2568,21 @@
         <v>482</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>71</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
-    <row r="11" spans="1:67" ht="64">
+    <row r="11" spans="1:67" ht="32">
       <c r="B11" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I11" s="1">
         <v>700000000</v>
@@ -2478,24 +2591,24 @@
         <v>501</v>
       </c>
       <c r="L11" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="P11" s="1">
         <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:67" ht="80">
       <c r="B12" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I12" s="1">
         <v>100000</v>
@@ -2504,707 +2617,257 @@
         <v>482</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P12" s="1">
         <v>1</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>71</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
-    <row r="22" spans="1:64" ht="112">
-      <c r="A22" s="2">
+    <row r="13" spans="1:67" ht="128">
+      <c r="B13" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67" ht="80">
+      <c r="B14" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:67" ht="96">
+      <c r="B15" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:67" ht="48">
+      <c r="B16" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2117</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:64" ht="96">
+      <c r="B17" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I17" s="1">
+        <f>(83+79+84+79+79)*1000000</f>
+        <v>404000000</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:64" ht="32">
+      <c r="B18" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I18" s="1">
         <v>774</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="K18" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:64" ht="32">
+      <c r="B19" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="I19" s="1">
+        <v>30000</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:64" ht="64">
+      <c r="B20" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="I20" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:64" ht="64">
+      <c r="B21" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:64" ht="96">
+      <c r="B22" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="26" spans="1:64" ht="112">
+      <c r="A26" s="2">
+        <v>774</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2">
-        <v>0</v>
-      </c>
-      <c r="X22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:64" ht="208">
-      <c r="A23" s="2">
-        <v>775</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2">
-        <v>0</v>
-      </c>
-      <c r="X23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:64" ht="80">
-      <c r="A24" s="2">
-        <v>776</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0</v>
-      </c>
-      <c r="S24" s="2">
-        <v>0</v>
-      </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:64" ht="208">
-      <c r="A25" s="2">
-        <v>777</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="R25" s="2">
-        <v>0</v>
-      </c>
-      <c r="S25" s="2">
-        <v>0</v>
-      </c>
-      <c r="T25" s="2">
-        <v>0</v>
-      </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
-      <c r="V25" s="2">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2">
-        <v>0</v>
-      </c>
-      <c r="X25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA25" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE25" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF25" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG25" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH25" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI25" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:64" ht="176">
-      <c r="A26" s="2">
-        <v>778</v>
-      </c>
-      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3212,20 +2875,26 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="M26" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0</v>
       </c>
       <c r="S26" s="2">
         <v>0</v>
@@ -3359,42 +3028,44 @@
       <c r="BJ26" s="2">
         <v>0</v>
       </c>
-      <c r="BK26" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL26" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:64" ht="192">
+    <row r="27" spans="1:64" ht="208">
       <c r="A27" s="2">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="K27" s="2"/>
-      <c r="L27" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="L27" s="2"/>
       <c r="M27" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
       </c>
       <c r="R27" s="2">
         <v>0</v>
@@ -3499,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA27" s="2">
         <v>0</v>
@@ -3522,28 +3193,16 @@
       <c r="BG27" s="2">
         <v>0</v>
       </c>
-      <c r="BH27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK27" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:64" ht="80">
+    <row r="28" spans="1:64" ht="64">
       <c r="A28" s="2">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3551,20 +3210,22 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="L28" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="M28" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2" t="s">
-        <v>101</v>
+      <c r="Q28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0</v>
       </c>
       <c r="S28" s="2">
         <v>0</v>
@@ -3701,41 +3362,38 @@
       <c r="BK28" s="2">
         <v>0</v>
       </c>
-      <c r="BL28" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:64" ht="112">
+    <row r="29" spans="1:64" ht="208">
       <c r="A29" s="2">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="P29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="R29" s="2">
         <v>0</v>
@@ -3840,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA29" s="2">
         <v>0</v>
@@ -3872,16 +3530,19 @@
       <c r="BJ29" s="2">
         <v>0</v>
       </c>
+      <c r="BK29" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:64" ht="160">
+    <row r="30" spans="1:64" ht="176">
       <c r="A30" s="2">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -3889,22 +3550,20 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="L30" s="2"/>
       <c r="M30" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="P30" s="2"/>
-      <c r="Q30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0</v>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="S30" s="2">
         <v>0</v>
@@ -4041,40 +3700,39 @@
       <c r="BK30" s="2">
         <v>0</v>
       </c>
+      <c r="BL30" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:64" ht="128">
+    <row r="31" spans="1:64" ht="112">
       <c r="A31" s="2">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="R31" s="2">
         <v>0</v>
@@ -4179,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="AZ31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA31" s="2">
         <v>0</v>
@@ -4208,41 +3866,43 @@
       <c r="BI31" s="2">
         <v>0</v>
       </c>
+      <c r="BJ31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:64" ht="128">
+    <row r="32" spans="1:64" ht="80">
       <c r="A32" s="2">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2">
-        <v>0</v>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="S32" s="2">
         <v>0</v>
@@ -4376,36 +4036,44 @@
       <c r="BJ32" s="2">
         <v>0</v>
       </c>
+      <c r="BK32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL32" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:64" ht="160">
+    <row r="33" spans="1:64" ht="112">
       <c r="A33" s="2">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="K33" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L33" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2" t="s">
-        <v>122</v>
+      <c r="P33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
       </c>
       <c r="R33" s="2">
         <v>0</v>
@@ -4542,23 +4210,16 @@
       <c r="BJ33" s="2">
         <v>0</v>
       </c>
-      <c r="BK33" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:64" ht="80">
+    <row r="34" spans="1:64" ht="96">
       <c r="A34" s="2">
-        <v>786</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="2">
-        <v>2005</v>
-      </c>
+        <v>782</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -4567,18 +4228,18 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="R34" s="2">
         <v>0</v>
@@ -4719,35 +4380,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:64" ht="80">
+    <row r="35" spans="1:64" ht="128">
       <c r="A35" s="2">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="L35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2" t="s">
-        <v>132</v>
+        <v>77</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
       </c>
       <c r="R35" s="2">
         <v>0</v>
@@ -4881,43 +4546,35 @@
       <c r="BI35" s="2">
         <v>0</v>
       </c>
-      <c r="BJ35" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK35" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:64" ht="112">
+    <row r="36" spans="1:64" ht="128">
       <c r="A36" s="2">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="J36" s="2"/>
       <c r="K36" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="P36" s="2">
-        <v>0</v>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="Q36" s="2">
         <v>0</v>
@@ -5052,50 +4709,41 @@
         <v>0</v>
       </c>
       <c r="BI36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:64" ht="160">
       <c r="A37" s="2">
-        <v>790</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="2">
-        <v>2013</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0</v>
-      </c>
-      <c r="P37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0</v>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="R37" s="2">
         <v>0</v>
@@ -5158,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="2">
         <v>0</v>
@@ -5218,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="BF37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG37" s="2">
         <v>0</v>
@@ -5226,38 +4874,49 @@
       <c r="BH37" s="2">
         <v>0</v>
       </c>
+      <c r="BI37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK37" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:64" ht="112">
+    <row r="38" spans="1:64" ht="64">
       <c r="A38" s="2">
-        <v>791</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+        <v>786</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2005</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="K38" s="2"/>
       <c r="L38" s="2" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="O38" s="2"/>
-      <c r="P38" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0</v>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="R38" s="2">
         <v>0</v>
@@ -5394,22 +5053,19 @@
       <c r="BJ38" s="2">
         <v>0</v>
       </c>
+      <c r="BK38" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:64" ht="160">
+    <row r="39" spans="1:64" ht="80">
       <c r="A39" s="2">
-        <v>792</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="2">
-        <v>2013</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -5417,20 +5073,22 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="L39" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="M39" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2" t="s">
-        <v>153</v>
+      <c r="Q39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0</v>
       </c>
       <c r="S39" s="2">
         <v>0</v>
@@ -5562,54 +5220,39 @@
         <v>0</v>
       </c>
       <c r="BJ39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK39" s="2">
         <v>0</v>
       </c>
-      <c r="BL39" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:64" ht="192">
+    <row r="40" spans="1:64" ht="112">
       <c r="A40" s="2">
-        <v>793</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40" s="2">
-        <v>2002</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>155</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="L40" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2">
-        <v>0</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="P40" s="2">
         <v>0</v>
@@ -5740,39 +5383,48 @@
       <c r="BF40" s="2">
         <v>0</v>
       </c>
+      <c r="BG40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI40" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:64" ht="128">
+    <row r="41" spans="1:64" ht="160">
       <c r="A41" s="2">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2013</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E41" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K41" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="L41" s="2"/>
-      <c r="M41" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0</v>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="O41" s="2">
         <v>0</v>
@@ -5844,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="AL41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM41" s="2">
         <v>0</v>
@@ -5904,42 +5556,49 @@
         <v>0</v>
       </c>
       <c r="BF41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG41" s="2">
         <v>0</v>
       </c>
+      <c r="BH41" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:64" ht="208">
+    <row r="42" spans="1:64" ht="112">
       <c r="A42" s="2">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="K42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="M42" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2" t="s">
-        <v>167</v>
+        <v>77</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0</v>
       </c>
       <c r="S42" s="2">
         <v>0</v>
@@ -6044,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="BA42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="2">
         <v>0</v>
@@ -6071,24 +5730,24 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK42" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL42" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:64" ht="160">
       <c r="A43" s="2">
-        <v>796</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+        <v>792</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -6096,22 +5755,20 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="L43" s="2"/>
       <c r="M43" s="2" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="P43" s="2"/>
-      <c r="Q43" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="R43" s="2">
-        <v>0</v>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="S43" s="2">
         <v>0</v>
@@ -6243,42 +5900,63 @@
         <v>0</v>
       </c>
       <c r="BJ43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK43" s="2">
         <v>0</v>
       </c>
+      <c r="BL43" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:64" ht="128">
+    <row r="44" spans="1:64" ht="192">
       <c r="A44" s="2">
-        <v>797</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+        <v>793</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="E44" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2" t="s">
-        <v>176</v>
+      <c r="L44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0</v>
       </c>
       <c r="S44" s="2">
         <v>0</v>
@@ -6400,53 +6078,45 @@
       <c r="BF44" s="2">
         <v>0</v>
       </c>
-      <c r="BG44" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH44" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI44" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ44" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK44" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL44" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:64" ht="96">
+    <row r="45" spans="1:64" ht="128">
       <c r="A45" s="2">
-        <v>798</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>177</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="H45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
       <c r="M45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2" t="s">
-        <v>83</v>
+        <v>159</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
       </c>
       <c r="Q45" s="2">
         <v>0</v>
@@ -6577,50 +6247,37 @@
       <c r="BG45" s="2">
         <v>0</v>
       </c>
-      <c r="BH45" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI45" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ45" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:64" ht="240">
+    <row r="46" spans="1:64" ht="208">
       <c r="A46" s="2">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
       <c r="M46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0</v>
-      </c>
-      <c r="R46" s="2">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="S46" s="2">
         <v>0</v>
@@ -6725,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="BA46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB46" s="2">
         <v>0</v>
@@ -6743,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="BG46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH46" s="2">
         <v>0</v>
@@ -6752,18 +6409,24 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL46" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:64" ht="80">
       <c r="A47" s="2">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -6771,20 +6434,22 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+      <c r="L47" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="M47" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2" t="s">
-        <v>187</v>
+      <c r="Q47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R47" s="2">
+        <v>0</v>
       </c>
       <c r="S47" s="2">
         <v>0</v>
@@ -6921,54 +6586,37 @@
       <c r="BK47" s="2">
         <v>0</v>
       </c>
-      <c r="BL47" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:64" ht="160">
+    <row r="48" spans="1:64" ht="128">
       <c r="A48" s="2">
-        <v>801</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="2">
-        <v>2013</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+      <c r="M48" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="N48" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="O48" s="2">
-        <v>0</v>
-      </c>
-      <c r="P48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0</v>
-      </c>
-      <c r="R48" s="2">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="S48" s="2">
         <v>0</v>
@@ -7028,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="2">
         <v>0</v>
@@ -7096,41 +6744,47 @@
       <c r="BH48" s="2">
         <v>0</v>
       </c>
+      <c r="BI48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL48" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:65" ht="144">
+    <row r="49" spans="1:65" ht="96">
       <c r="A49" s="2">
-        <v>802</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>195</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>197</v>
-      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="O49" s="2">
-        <v>0</v>
-      </c>
-      <c r="P49" s="2">
-        <v>0</v>
+        <v>178</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="Q49" s="2">
         <v>0</v>
@@ -7264,45 +6918,41 @@
       <c r="BH49" s="2">
         <v>0</v>
       </c>
+      <c r="BI49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ49" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:65" ht="160">
+    <row r="50" spans="1:65" ht="240">
       <c r="A50" s="2">
-        <v>803</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" s="2">
-        <v>2013</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>200</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
       <c r="K50" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="O50" s="2">
-        <v>0</v>
-      </c>
-      <c r="P50" s="2">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="Q50" s="2">
         <v>0</v>
@@ -7431,46 +7081,48 @@
         <v>0</v>
       </c>
       <c r="BG50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ50" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:65" ht="80">
       <c r="A51" s="2">
-        <v>804</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="L51" s="2"/>
       <c r="M51" s="2" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="P51" s="2"/>
-      <c r="Q51" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="R51" s="2">
-        <v>0</v>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="S51" s="2">
         <v>0</v>
@@ -7607,35 +7259,48 @@
       <c r="BK51" s="2">
         <v>0</v>
       </c>
+      <c r="BL51" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:65" ht="112">
+    <row r="52" spans="1:65" ht="160">
       <c r="A52" s="2">
-        <v>805</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+        <v>801</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="E52" s="2" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="I52" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="K52" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2" t="s">
-        <v>172</v>
+        <v>71</v>
+      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0</v>
       </c>
       <c r="Q52" s="2">
         <v>0</v>
@@ -7701,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="AL52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM52" s="2">
         <v>0</v>
@@ -7769,54 +7434,38 @@
       <c r="BH52" s="2">
         <v>0</v>
       </c>
-      <c r="BI52" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ52" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:65" ht="256">
+    <row r="53" spans="1:65" ht="144">
       <c r="A53" s="2">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1973</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H53" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="L53" s="2">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2">
-        <v>0</v>
-      </c>
-      <c r="N53" s="2">
-        <v>0</v>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="O53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" s="2">
         <v>0</v>
@@ -7909,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="AT53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU53" s="2">
         <v>0</v>
@@ -7944,45 +7593,48 @@
       <c r="BE53" s="2">
         <v>0</v>
       </c>
+      <c r="BF53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH53" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:65" ht="240">
+    <row r="54" spans="1:65" ht="160">
       <c r="A54" s="2">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C54" s="2">
-        <v>1984</v>
+        <v>2013</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H54" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L54" s="2">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
-        <v>0</v>
-      </c>
-      <c r="N54" s="2">
-        <v>0</v>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="O54" s="2">
         <v>0</v>
@@ -8105,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="2">
         <v>0</v>
@@ -8113,48 +7765,47 @@
       <c r="BE54" s="2">
         <v>0</v>
       </c>
+      <c r="BF54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH54" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:65" ht="160">
+    <row r="55" spans="1:65" ht="80">
       <c r="A55" s="2">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C55" s="2">
-        <v>2013</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>228</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="O55" s="2">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>0</v>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="R55" s="2">
         <v>0</v>
@@ -8217,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="AL55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="2">
         <v>0</v>
@@ -8277,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="BF55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG55" s="2">
         <v>0</v>
@@ -8285,49 +7936,44 @@
       <c r="BH55" s="2">
         <v>0</v>
       </c>
+      <c r="BI55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK55" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:65" ht="224">
+    <row r="56" spans="1:65" ht="112">
       <c r="A56" s="2">
-        <v>809</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C56" s="2">
-        <v>2014</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>233</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="K56" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="L56" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="M56" s="2">
-        <v>0</v>
-      </c>
-      <c r="N56" s="2">
-        <v>0</v>
-      </c>
-      <c r="O56" s="2">
-        <v>0</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="Q56" s="2">
         <v>0</v>
@@ -8387,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="2">
         <v>0</v>
@@ -8447,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="BD56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE56" s="2">
         <v>0</v>
@@ -8455,208 +8101,238 @@
       <c r="BF56" s="2">
         <v>0</v>
       </c>
+      <c r="BG56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI56" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ56" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:65" ht="64">
+    <row r="57" spans="1:65" ht="256">
       <c r="A57" s="2">
-        <v>810</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+        <v>806</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1973</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="E57" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="P57" s="2" t="s">
+      <c r="K57" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <v>1</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="2">
+        <v>0</v>
+      </c>
+      <c r="S57" s="2">
+        <v>0</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0</v>
+      </c>
+      <c r="V57" s="2">
+        <v>0</v>
+      </c>
+      <c r="W57" s="2">
+        <v>0</v>
+      </c>
+      <c r="X57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD57" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:65" ht="240">
+      <c r="A58" s="2">
+        <v>807</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1984</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="T57" s="2">
-        <v>0</v>
-      </c>
-      <c r="U57" s="2">
-        <v>0</v>
-      </c>
-      <c r="V57" s="2">
-        <v>0</v>
-      </c>
-      <c r="W57" s="2">
-        <v>0</v>
-      </c>
-      <c r="X57" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ57" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA57" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB57" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC57" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD57" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE57" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF57" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG57" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH57" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI57" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ57" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK57" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL57" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:65" ht="80">
-      <c r="A58" s="2">
-        <v>811</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2" t="s">
-        <v>245</v>
+      <c r="K58" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="2">
+        <v>0</v>
       </c>
       <c r="S58" s="2">
         <v>0</v>
@@ -8767,234 +8443,232 @@
         <v>0</v>
       </c>
       <c r="BC58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD58" s="2">
         <v>0</v>
       </c>
       <c r="BE58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK58" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL58" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:65" ht="160">
       <c r="A59" s="2">
-        <v>812</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+        <v>808</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="E59" s="2" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>248</v>
-      </c>
+      <c r="I59" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
       <c r="N59" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>0</v>
+      </c>
+      <c r="R59" s="2">
+        <v>0</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59" s="2">
+        <v>0</v>
+      </c>
+      <c r="U59" s="2">
+        <v>0</v>
+      </c>
+      <c r="V59" s="2">
+        <v>0</v>
+      </c>
+      <c r="W59" s="2">
+        <v>0</v>
+      </c>
+      <c r="X59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG59" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:65" ht="224">
+      <c r="A60" s="2">
+        <v>809</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="R59" s="2">
-        <v>0</v>
-      </c>
-      <c r="S59" s="2">
-        <v>0</v>
-      </c>
-      <c r="T59" s="2">
-        <v>0</v>
-      </c>
-      <c r="U59" s="2">
-        <v>0</v>
-      </c>
-      <c r="V59" s="2">
-        <v>0</v>
-      </c>
-      <c r="W59" s="2">
-        <v>0</v>
-      </c>
-      <c r="X59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ59" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ59" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:65" ht="80">
-      <c r="A60" s="2">
-        <v>813</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0</v>
       </c>
       <c r="R60" s="2">
         <v>0</v>
@@ -9051,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="AJ60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK60" s="2">
         <v>0</v>
@@ -9111,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="BD60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE60" s="2">
         <v>0</v>
@@ -9119,37 +8793,16 @@
       <c r="BF60" s="2">
         <v>0</v>
       </c>
-      <c r="BG60" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH60" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI60" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ60" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK60" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="61" spans="1:65" ht="144">
+    <row r="61" spans="1:65" ht="64">
       <c r="A61" s="2">
-        <v>814</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C61" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>255</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -9158,22 +8811,20 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2" t="s">
-        <v>257</v>
-      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P61" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="Q61" s="2"/>
-      <c r="R61" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="S61" s="2">
-        <v>0</v>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="T61" s="2">
         <v>0</v>
@@ -9302,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK61" s="2">
         <v>0</v>
@@ -9310,18 +8961,19 @@
       <c r="BL61" s="2">
         <v>0</v>
       </c>
+      <c r="BM61" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:65" ht="96">
+    <row r="62" spans="1:65" ht="80">
       <c r="A62" s="2">
-        <v>815</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>260</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -9329,22 +8981,20 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="2" t="s">
-        <v>262</v>
-      </c>
+      <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="N62" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O62" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O62" s="2"/>
       <c r="P62" s="2"/>
-      <c r="Q62" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="R62" s="2">
-        <v>0</v>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="S62" s="2">
         <v>0</v>
@@ -9481,16 +9131,19 @@
       <c r="BK62" s="2">
         <v>0</v>
       </c>
+      <c r="BL62" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:65" ht="144">
+    <row r="63" spans="1:65" ht="160">
       <c r="A63" s="2">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -9499,18 +9152,18 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>268</v>
+        <v>71</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="R63" s="2">
         <v>0</v>
@@ -9615,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="AZ63" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA63" s="2">
         <v>0</v>
@@ -9651,47 +9304,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:65" ht="160">
+    <row r="64" spans="1:65" ht="64">
       <c r="A64" s="2">
-        <v>817</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C64" s="2">
-        <v>2014</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>271</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="O64" s="2">
-        <v>0</v>
-      </c>
-      <c r="P64" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>0</v>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="R64" s="2">
         <v>0</v>
@@ -9814,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="BF64" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG64" s="2">
         <v>0</v>
@@ -9822,16 +9463,31 @@
       <c r="BH64" s="2">
         <v>0</v>
       </c>
+      <c r="BI64" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ64" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK64" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:64" ht="160">
+    <row r="65" spans="1:64" ht="144">
       <c r="A65" s="2">
-        <v>818</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+        <v>814</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="E65" s="2" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -9839,22 +9495,20 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="2" t="s">
-        <v>277</v>
-      </c>
+      <c r="L65" s="2"/>
       <c r="M65" s="2" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="P65" s="2"/>
-      <c r="Q65" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="R65" s="2">
-        <v>0</v>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="S65" s="2">
         <v>0</v>
@@ -9956,51 +9610,56 @@
         <v>0</v>
       </c>
       <c r="AZ65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ65" s="2">
         <v>1</v>
       </c>
-      <c r="BA65" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB65" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC65" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD65" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE65" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF65" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG65" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH65" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI65" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ65" s="2">
-        <v>0</v>
-      </c>
       <c r="BK65" s="2">
         <v>0</v>
       </c>
+      <c r="BL65" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:64" ht="112">
+    <row r="66" spans="1:64" ht="64">
       <c r="A66" s="2">
-        <v>819</v>
-      </c>
-      <c r="B66" s="2"/>
+        <v>815</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -10008,20 +9667,22 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
+      <c r="L66" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="M66" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="O66" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="O66" s="2"/>
       <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2" t="s">
-        <v>245</v>
+      <c r="Q66" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="R66" s="2">
+        <v>0</v>
       </c>
       <c r="S66" s="2">
         <v>0</v>
@@ -10158,25 +9819,16 @@
       <c r="BK66" s="2">
         <v>0</v>
       </c>
-      <c r="BL66" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="67" spans="1:64" ht="409.6">
+    <row r="67" spans="1:64" ht="144">
       <c r="A67" s="2">
-        <v>820</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C67" s="2">
-        <v>2013</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>283</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -10184,20 +9836,22 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
+      <c r="L67" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="M67" s="2" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2" t="s">
-        <v>287</v>
+      <c r="Q67" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="R67" s="2">
+        <v>0</v>
       </c>
       <c r="S67" s="2">
         <v>0</v>
@@ -10334,39 +9988,48 @@
       <c r="BK67" s="2">
         <v>0</v>
       </c>
-      <c r="BL67" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="68" spans="1:64" ht="80">
+    <row r="68" spans="1:64" ht="160">
       <c r="A68" s="2">
-        <v>821</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+        <v>817</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="E68" s="2" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>290</v>
-      </c>
+      <c r="I68" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
       <c r="N68" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2" t="s">
-        <v>83</v>
+        <v>275</v>
+      </c>
+      <c r="O68" s="2">
+        <v>0</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>0</v>
       </c>
       <c r="R68" s="2">
         <v>0</v>
@@ -10489,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="BF68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG68" s="2">
         <v>0</v>
@@ -10497,49 +10160,36 @@
       <c r="BH68" s="2">
         <v>0</v>
       </c>
-      <c r="BI68" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ68" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK68" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="69" spans="1:64" ht="176">
+    <row r="69" spans="1:64" ht="160">
       <c r="A69" s="2">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-      <c r="J69" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>294</v>
-      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
       <c r="L69" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="P69" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>0</v>
+        <v>277</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="R69" s="2">
         <v>0</v>
@@ -10644,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="AZ69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA69" s="2">
         <v>0</v>
@@ -10673,22 +10323,22 @@
       <c r="BI69" s="2">
         <v>0</v>
       </c>
+      <c r="BJ69" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK69" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:64" ht="208">
+    <row r="70" spans="1:64" ht="112">
       <c r="A70" s="2">
-        <v>823</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C70" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>297</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -10696,22 +10346,20 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="2" t="s">
-        <v>299</v>
-      </c>
+      <c r="L70" s="2"/>
       <c r="M70" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N70" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O70" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O70" s="2"/>
       <c r="P70" s="2"/>
-      <c r="Q70" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="R70" s="2">
-        <v>0</v>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="S70" s="2">
         <v>0</v>
@@ -10848,16 +10496,25 @@
       <c r="BK70" s="2">
         <v>0</v>
       </c>
+      <c r="BL70" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:64" ht="160">
+    <row r="71" spans="1:64" ht="409.6">
       <c r="A71" s="2">
-        <v>824</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+        <v>820</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="E71" s="2" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -10865,22 +10522,20 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="2" t="s">
-        <v>303</v>
-      </c>
+      <c r="L71" s="2"/>
       <c r="M71" s="2" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="P71" s="2"/>
-      <c r="Q71" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="R71" s="2">
-        <v>0</v>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="S71" s="2">
         <v>0</v>
@@ -10982,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="AZ71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA71" s="2">
         <v>0</v>
@@ -11015,18 +10670,21 @@
         <v>0</v>
       </c>
       <c r="BK71" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL71" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:64" ht="64">
       <c r="A72" s="2">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -11034,20 +10692,22 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
+      <c r="L72" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="M72" s="2" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2" t="s">
-        <v>309</v>
+      <c r="Q72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R72" s="2">
+        <v>0</v>
       </c>
       <c r="S72" s="2">
         <v>0</v>
@@ -11184,39 +10844,40 @@
       <c r="BK72" s="2">
         <v>0</v>
       </c>
-      <c r="BL72" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="73" spans="1:64" ht="96">
+    <row r="73" spans="1:64" ht="176">
       <c r="A73" s="2">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>312</v>
-      </c>
+      <c r="J73" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2" t="s">
-        <v>314</v>
+        <v>295</v>
+      </c>
+      <c r="P73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>0</v>
       </c>
       <c r="R73" s="2">
         <v>0</v>
@@ -11350,22 +11011,22 @@
       <c r="BI73" s="2">
         <v>0</v>
       </c>
-      <c r="BJ73" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK73" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="74" spans="1:64" ht="288">
+    <row r="74" spans="1:64" ht="160">
       <c r="A74" s="2">
-        <v>827</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+        <v>823</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2009</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="E74" s="2" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -11374,22 +11035,18 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O74" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q74" s="2">
-        <v>0</v>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="R74" s="2">
         <v>0</v>
@@ -11491,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="AY74" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ74" s="2">
         <v>0</v>
@@ -11526,16 +11183,19 @@
       <c r="BJ74" s="2">
         <v>0</v>
       </c>
+      <c r="BK74" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:64" ht="112">
+    <row r="75" spans="1:64" ht="160">
       <c r="A75" s="2">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -11544,18 +11204,18 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2" t="s">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c r="R75" s="2">
         <v>0</v>
@@ -11660,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="AZ75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA75" s="2">
         <v>0</v>
@@ -11696,17 +11356,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:64" ht="80">
+    <row r="76" spans="1:64" ht="64">
       <c r="A76" s="2">
-        <v>829</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>323</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -11714,22 +11372,20 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="2" t="s">
-        <v>325</v>
-      </c>
+      <c r="L76" s="2"/>
       <c r="M76" s="2" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="N76" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="O76" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O76" s="2"/>
       <c r="P76" s="2"/>
-      <c r="Q76" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="R76" s="2">
-        <v>0</v>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="S76" s="2">
         <v>0</v>
@@ -11866,40 +11522,39 @@
       <c r="BK76" s="2">
         <v>0</v>
       </c>
+      <c r="BL76" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:64" ht="112">
+    <row r="77" spans="1:64" ht="96">
       <c r="A77" s="2">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="O77" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P77" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="2">
-        <v>0</v>
+        <v>313</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="R77" s="2">
         <v>0</v>
@@ -12033,16 +11688,22 @@
       <c r="BI77" s="2">
         <v>0</v>
       </c>
+      <c r="BJ77" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK77" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:64" ht="112">
+    <row r="78" spans="1:64" ht="288">
       <c r="A78" s="2">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -12051,18 +11712,22 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2" t="s">
-        <v>335</v>
+      <c r="O78" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>0</v>
       </c>
       <c r="R78" s="2">
         <v>0</v>
@@ -12164,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="AY78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ78" s="2">
         <v>0</v>
@@ -12199,19 +11864,16 @@
       <c r="BJ78" s="2">
         <v>0</v>
       </c>
-      <c r="BK78" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="79" spans="1:64" ht="80">
+    <row r="79" spans="1:64" ht="64">
       <c r="A79" s="2">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -12219,20 +11881,22 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
+      <c r="L79" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="M79" s="2" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>339</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2" t="s">
-        <v>340</v>
+      <c r="Q79" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="R79" s="2">
+        <v>0</v>
       </c>
       <c r="S79" s="2">
         <v>0</v>
@@ -12369,41 +12033,38 @@
       <c r="BK79" s="2">
         <v>0</v>
       </c>
-      <c r="BL79" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="80" spans="1:64" ht="96">
+    <row r="80" spans="1:64" ht="80">
       <c r="A80" s="2">
-        <v>833</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
-      <c r="K80" s="2" t="s">
-        <v>342</v>
-      </c>
+      <c r="K80" s="2"/>
       <c r="L80" s="2" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="O80" s="2"/>
-      <c r="P80" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q80" s="2">
-        <v>0</v>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="R80" s="2">
         <v>0</v>
@@ -12540,36 +12201,43 @@
       <c r="BJ80" s="2">
         <v>0</v>
       </c>
+      <c r="BK80" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:64" ht="64">
+    <row r="81" spans="1:64" ht="112">
       <c r="A81" s="2">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
+      <c r="J81" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="L81" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2" t="s">
-        <v>348</v>
+        <v>331</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P81" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>0</v>
       </c>
       <c r="R81" s="2">
         <v>0</v>
@@ -12703,22 +12371,16 @@
       <c r="BI81" s="2">
         <v>0</v>
       </c>
-      <c r="BJ81" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK81" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="82" spans="1:64" ht="64">
+    <row r="82" spans="1:64" ht="80">
       <c r="A82" s="2">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -12726,20 +12388,22 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
+      <c r="L82" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="M82" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2" t="s">
-        <v>83</v>
+      <c r="Q82" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="R82" s="2">
+        <v>0</v>
       </c>
       <c r="S82" s="2">
         <v>0</v>
@@ -12876,19 +12540,16 @@
       <c r="BK82" s="2">
         <v>0</v>
       </c>
-      <c r="BL82" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="83" spans="1:64" ht="112">
+    <row r="83" spans="1:64" ht="80">
       <c r="A83" s="2">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -12896,22 +12557,20 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
-      <c r="L83" s="2" t="s">
-        <v>353</v>
-      </c>
+      <c r="L83" s="2"/>
       <c r="M83" s="2" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="P83" s="2"/>
-      <c r="Q83" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="R83" s="2">
-        <v>0</v>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="S83" s="2">
         <v>0</v>
@@ -13048,37 +12707,38 @@
       <c r="BK83" s="2">
         <v>0</v>
       </c>
+      <c r="BL83" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:64" ht="112">
+    <row r="84" spans="1:64" ht="96">
       <c r="A84" s="2">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
-      <c r="J84" s="2" t="s">
-        <v>358</v>
-      </c>
+      <c r="J84" s="2"/>
       <c r="K84" s="2" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="N84" s="2"/>
-      <c r="O84" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="P84" s="2">
-        <v>0</v>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="Q84" s="2">
         <v>0</v>
@@ -13215,44 +12875,39 @@
       <c r="BI84" s="2">
         <v>0</v>
       </c>
+      <c r="BJ84" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:64" ht="80">
+    <row r="85" spans="1:64" ht="64">
       <c r="A85" s="2">
-        <v>839</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>362</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="E85" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="N85" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="O85" s="2">
-        <v>0</v>
-      </c>
-      <c r="P85" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="2">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="R85" s="2">
         <v>0</v>
@@ -13375,7 +13030,7 @@
         <v>0</v>
       </c>
       <c r="BF85" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG85" s="2">
         <v>0</v>
@@ -13383,16 +13038,25 @@
       <c r="BH85" s="2">
         <v>0</v>
       </c>
+      <c r="BI85" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ85" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK85" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:64" ht="112">
+    <row r="86" spans="1:64" ht="64">
       <c r="A86" s="2">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -13400,22 +13064,20 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
-      <c r="L86" s="2" t="s">
-        <v>367</v>
-      </c>
+      <c r="L86" s="2"/>
       <c r="M86" s="2" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="P86" s="2"/>
-      <c r="Q86" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="R86" s="2">
-        <v>0</v>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="S86" s="2">
         <v>0</v>
@@ -13552,16 +13214,19 @@
       <c r="BK86" s="2">
         <v>0</v>
       </c>
+      <c r="BL86" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:64" ht="128">
+    <row r="87" spans="1:64" ht="64">
       <c r="A87" s="2">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -13569,20 +13234,22 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
+      <c r="L87" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="M87" s="2" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2" t="s">
-        <v>253</v>
+      <c r="Q87" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R87" s="2">
+        <v>0</v>
       </c>
       <c r="S87" s="2">
         <v>0</v>
@@ -13717,41 +13384,42 @@
         <v>0</v>
       </c>
       <c r="BK87" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL87" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:64" ht="112">
       <c r="A88" s="2">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
+      <c r="J88" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="L88" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2" t="s">
-        <v>376</v>
+        <v>77</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="P88" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>0</v>
       </c>
       <c r="R88" s="2">
         <v>0</v>
@@ -13885,41 +13553,41 @@
       <c r="BI88" s="2">
         <v>0</v>
       </c>
-      <c r="BJ88" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK88" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="89" spans="1:64" ht="112">
+    <row r="89" spans="1:64" ht="80">
       <c r="A89" s="2">
-        <v>843</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+        <v>839</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D89" s="2"/>
-      <c r="E89" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
+      <c r="I89" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="K89" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2" t="s">
-        <v>379</v>
+        <v>71</v>
+      </c>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="O89" s="2">
+        <v>0</v>
+      </c>
+      <c r="P89" s="2">
+        <v>0</v>
       </c>
       <c r="Q89" s="2">
         <v>0</v>
@@ -14036,61 +13704,53 @@
         <v>0</v>
       </c>
       <c r="BC89" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD89" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE89" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF89" s="2">
         <v>1</v>
       </c>
-      <c r="BD89" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE89" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF89" s="2">
-        <v>0</v>
-      </c>
       <c r="BG89" s="2">
         <v>0</v>
       </c>
       <c r="BH89" s="2">
         <v>0</v>
       </c>
-      <c r="BI89" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ89" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="90" spans="1:64" ht="112">
+    <row r="90" spans="1:64" ht="80">
       <c r="A90" s="2">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
-      <c r="K90" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="K90" s="2"/>
       <c r="L90" s="2" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="O90" s="2"/>
-      <c r="P90" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q90" s="2">
-        <v>0</v>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="R90" s="2">
         <v>0</v>
@@ -14219,7 +13879,7 @@
         <v>0</v>
       </c>
       <c r="BH90" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI90" s="2">
         <v>0</v>
@@ -14227,16 +13887,19 @@
       <c r="BJ90" s="2">
         <v>0</v>
       </c>
+      <c r="BK90" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:64" ht="176">
+    <row r="91" spans="1:64" ht="128">
       <c r="A91" s="2">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -14246,10 +13909,10 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>71</v>
@@ -14398,15 +14061,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:64" ht="96">
+    <row r="92" spans="1:64" ht="80">
       <c r="A92" s="2">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -14414,22 +14077,22 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
+      <c r="L92" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="M92" s="2" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="O92" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P92" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2" t="s">
-        <v>391</v>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="R92" s="2">
+        <v>0</v>
       </c>
       <c r="S92" s="2">
         <v>0</v>
@@ -14566,39 +14229,38 @@
       <c r="BK92" s="2">
         <v>0</v>
       </c>
-      <c r="BL92" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="93" spans="1:64" ht="192">
+    <row r="93" spans="1:64" ht="112">
       <c r="A93" s="2">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>392</v>
+        <v>102</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
+      <c r="K93" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="L93" s="2" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="N93" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2" t="s">
-        <v>395</v>
+      <c r="P93" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>0</v>
       </c>
       <c r="R93" s="2">
         <v>0</v>
@@ -14712,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="BC93" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD93" s="2">
         <v>0</v>
@@ -14735,40 +14397,35 @@
       <c r="BJ93" s="2">
         <v>0</v>
       </c>
-      <c r="BK93" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="94" spans="1:64" ht="240">
+    <row r="94" spans="1:64" ht="112">
       <c r="A94" s="2">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
+      <c r="K94" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="L94" s="2" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="N94" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O94" s="2" t="s">
-        <v>399</v>
-      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
       <c r="P94" s="2" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="Q94" s="2">
         <v>0</v>
@@ -14909,42 +14566,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:64" ht="112">
+    <row r="95" spans="1:64" ht="176">
       <c r="A95" s="2">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
-      <c r="J95" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="L95" s="2" t="s">
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="P95" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="2">
-        <v>0</v>
-      </c>
-      <c r="R95" s="2">
-        <v>0</v>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="S95" s="2">
         <v>0</v>
@@ -15067,7 +14718,7 @@
         <v>0</v>
       </c>
       <c r="BG95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH95" s="2">
         <v>0</v>
@@ -15075,16 +14726,25 @@
       <c r="BI95" s="2">
         <v>0</v>
       </c>
+      <c r="BJ95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL95" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:64" ht="64">
+    <row r="96" spans="1:64" ht="96">
       <c r="A96" s="2">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -15094,18 +14754,20 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P96" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="Q96" s="2"/>
       <c r="R96" s="2" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="S96" s="2">
         <v>0</v>
@@ -15246,15 +14908,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:64" ht="176">
+    <row r="97" spans="1:64" ht="160">
       <c r="A97" s="2">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -15262,20 +14924,22 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
+      <c r="L97" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="M97" s="2" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="O97" s="2"/>
       <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2" t="s">
-        <v>412</v>
+      <c r="Q97" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="R97" s="2">
+        <v>0</v>
       </c>
       <c r="S97" s="2">
         <v>0</v>
@@ -15380,7 +15044,7 @@
         <v>0</v>
       </c>
       <c r="BA97" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB97" s="2">
         <v>0</v>
@@ -15412,38 +15076,37 @@
       <c r="BK97" s="2">
         <v>0</v>
       </c>
-      <c r="BL97" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="98" spans="1:64" ht="192">
+    <row r="98" spans="1:64" ht="240">
       <c r="A98" s="2">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
-      <c r="K98" s="2" t="s">
-        <v>414</v>
-      </c>
+      <c r="K98" s="2"/>
       <c r="L98" s="2" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="M98" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="N98" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
+      <c r="O98" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="P98" s="2" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="Q98" s="2">
         <v>0</v>
@@ -15575,7 +15238,7 @@
         <v>0</v>
       </c>
       <c r="BH98" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI98" s="2">
         <v>0</v>
@@ -15584,34 +15247,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:64" ht="80">
+    <row r="99" spans="1:64" ht="112">
       <c r="A99" s="2">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
+      <c r="J99" s="2" t="s">
+        <v>402</v>
+      </c>
       <c r="K99" s="2" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>420</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2" t="s">
-        <v>421</v>
+      <c r="O99" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="P99" s="2">
+        <v>0</v>
       </c>
       <c r="Q99" s="2">
         <v>0</v>
@@ -15683,115 +15348,102 @@
         <v>0</v>
       </c>
       <c r="AN99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ99" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA99" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB99" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC99" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD99" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE99" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF99" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG99" s="2">
         <v>1</v>
       </c>
-      <c r="AO99" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP99" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ99" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR99" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS99" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT99" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU99" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV99" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW99" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX99" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY99" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ99" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA99" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB99" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC99" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD99" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE99" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF99" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG99" s="2">
-        <v>0</v>
-      </c>
       <c r="BH99" s="2">
         <v>0</v>
       </c>
       <c r="BI99" s="2">
         <v>0</v>
       </c>
-      <c r="BJ99" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="100" spans="1:64" ht="160">
+    <row r="100" spans="1:64" ht="64">
       <c r="A100" s="2">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="N100" s="2">
-        <v>0</v>
-      </c>
-      <c r="O100" s="2">
-        <v>0</v>
-      </c>
-      <c r="P100" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="2">
-        <v>0</v>
-      </c>
-      <c r="R100" s="2">
-        <v>0</v>
+        <v>406</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="S100" s="2">
         <v>0</v>
@@ -15916,16 +15568,31 @@
       <c r="BG100" s="2">
         <v>0</v>
       </c>
+      <c r="BH100" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI100" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ100" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK100" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL100" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="1:64" ht="192">
+    <row r="101" spans="1:64" ht="176">
       <c r="A101" s="2">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -15935,18 +15602,18 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
       <c r="R101" s="2" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="S101" s="2">
         <v>0</v>
@@ -16051,7 +15718,7 @@
         <v>0</v>
       </c>
       <c r="BA101" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB101" s="2">
         <v>0</v>
@@ -16087,36 +15754,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:64" ht="128">
+    <row r="102" spans="1:64" ht="192">
       <c r="A102" s="2">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
+      <c r="K102" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>415</v>
+      </c>
       <c r="M102" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="N102" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2" t="s">
-        <v>433</v>
+        <v>71</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>0</v>
+      </c>
+      <c r="R102" s="2">
+        <v>0</v>
       </c>
       <c r="S102" s="2">
         <v>0</v>
@@ -16233,7 +15904,7 @@
         <v>0</v>
       </c>
       <c r="BE102" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF102" s="2">
         <v>0</v>
@@ -16248,44 +15919,40 @@
         <v>0</v>
       </c>
       <c r="BJ102" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK102" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL102" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:64" ht="80">
       <c r="A103" s="2">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
+      <c r="K103" s="2" t="s">
+        <v>418</v>
+      </c>
       <c r="L103" s="2" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="N103" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2" t="s">
-        <v>437</v>
+      <c r="P103" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>0</v>
       </c>
       <c r="R103" s="2">
         <v>0</v>
@@ -16354,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="AN103" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO103" s="2">
         <v>0</v>
@@ -16422,41 +16089,44 @@
       <c r="BJ103" s="2">
         <v>0</v>
       </c>
-      <c r="BK103" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="104" spans="1:64" ht="112">
+    <row r="104" spans="1:64" ht="160">
       <c r="A104" s="2">
-        <v>858</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>438</v>
-      </c>
+        <v>854</v>
+      </c>
+      <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
+      <c r="H104" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="K104" s="2"/>
-      <c r="L104" s="2" t="s">
-        <v>440</v>
-      </c>
+      <c r="L104" s="2"/>
       <c r="M104" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="N104" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2" t="s">
-        <v>442</v>
+        <v>425</v>
+      </c>
+      <c r="N104" s="2">
+        <v>0</v>
+      </c>
+      <c r="O104" s="2">
+        <v>0</v>
+      </c>
+      <c r="P104" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>0</v>
       </c>
       <c r="R104" s="2">
         <v>0</v>
@@ -16528,7 +16198,7 @@
         <v>0</v>
       </c>
       <c r="AO104" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP104" s="2">
         <v>0</v>
@@ -16584,55 +16254,37 @@
       <c r="BG104" s="2">
         <v>0</v>
       </c>
-      <c r="BH104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ104" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK104" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="105" spans="1:64" ht="96">
+    <row r="105" spans="1:64" ht="192">
       <c r="A105" s="2">
-        <v>859</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>444</v>
-      </c>
+        <v>855</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+      <c r="E105" s="2" t="s">
+        <v>426</v>
+      </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
-      <c r="K105" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>446</v>
-      </c>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
       <c r="M105" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="O105" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q105" s="2">
-        <v>0</v>
-      </c>
-      <c r="R105" s="2">
-        <v>0</v>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="S105" s="2">
         <v>0</v>
@@ -16764,18 +16416,24 @@
         <v>0</v>
       </c>
       <c r="BJ105" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK105" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL105" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:64" ht="128">
       <c r="A106" s="2">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -16785,18 +16443,18 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="2" t="s">
-        <v>253</v>
+        <v>433</v>
       </c>
       <c r="S106" s="2">
         <v>0</v>
@@ -16913,7 +16571,7 @@
         <v>0</v>
       </c>
       <c r="BE106" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF106" s="2">
         <v>0</v>
@@ -16937,37 +16595,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:64" ht="96">
+    <row r="107" spans="1:64" ht="80">
       <c r="A107" s="2">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
-      <c r="K107" s="2" t="s">
-        <v>451</v>
-      </c>
+      <c r="K107" s="2"/>
       <c r="L107" s="2" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="O107" s="2"/>
-      <c r="P107" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q107" s="2">
-        <v>0</v>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="R107" s="2">
         <v>0</v>
@@ -17104,48 +16760,41 @@
       <c r="BJ107" s="2">
         <v>0</v>
       </c>
+      <c r="BK107" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:64" ht="208">
+    <row r="108" spans="1:64" ht="112">
       <c r="A108" s="2">
-        <v>862</v>
-      </c>
-      <c r="B108" s="2"/>
+        <v>858</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>438</v>
+      </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>457</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
-      <c r="K108" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L108" s="2">
-        <v>0</v>
-      </c>
-      <c r="M108" s="2">
-        <v>0</v>
-      </c>
-      <c r="N108" s="2">
-        <v>0</v>
-      </c>
-      <c r="O108" s="2">
-        <v>0</v>
-      </c>
-      <c r="P108" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="2">
-        <v>0</v>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="R108" s="2">
         <v>0</v>
@@ -17217,7 +16866,7 @@
         <v>0</v>
       </c>
       <c r="AO108" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP108" s="2">
         <v>0</v>
@@ -17267,39 +16916,55 @@
       <c r="BE108" s="2">
         <v>0</v>
       </c>
+      <c r="BF108" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG108" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH108" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI108" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ108" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK108" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:64" ht="256">
+    <row r="109" spans="1:64" ht="96">
       <c r="A109" s="2">
-        <v>863</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+        <v>859</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>444</v>
+      </c>
       <c r="D109" s="2"/>
-      <c r="E109" s="2" t="s">
-        <v>458</v>
-      </c>
+      <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N109" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="O109" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="P109" s="2">
-        <v>0</v>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="Q109" s="2">
         <v>0</v>
@@ -17436,16 +17101,19 @@
       <c r="BI109" s="2">
         <v>0</v>
       </c>
+      <c r="BJ109" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:64" ht="96">
+    <row r="110" spans="1:64" ht="128">
       <c r="A110" s="2">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -17455,18 +17123,18 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
       <c r="R110" s="2" t="s">
-        <v>466</v>
+        <v>253</v>
       </c>
       <c r="S110" s="2">
         <v>0</v>
@@ -17607,36 +17275,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:64" ht="112">
+    <row r="111" spans="1:64" ht="96">
       <c r="A111" s="2">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
+      <c r="K111" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>452</v>
+      </c>
       <c r="M111" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="N111" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="O111" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2" t="s">
-        <v>471</v>
+        <v>453</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>0</v>
+      </c>
+      <c r="R111" s="2">
+        <v>0</v>
       </c>
       <c r="S111" s="2">
         <v>0</v>
@@ -17770,42 +17442,48 @@
       <c r="BJ111" s="2">
         <v>0</v>
       </c>
-      <c r="BK111" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL111" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="112" spans="1:64" ht="96">
+    <row r="112" spans="1:64" ht="208">
       <c r="A112" s="2">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2" t="s">
-        <v>475</v>
+      <c r="K112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L112" s="2">
+        <v>0</v>
+      </c>
+      <c r="M112" s="2">
+        <v>0</v>
+      </c>
+      <c r="N112" s="2">
+        <v>0</v>
+      </c>
+      <c r="O112" s="2">
+        <v>0</v>
+      </c>
+      <c r="P112" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>0</v>
       </c>
       <c r="R112" s="2">
         <v>0</v>
@@ -17927,34 +17605,16 @@
       <c r="BE112" s="2">
         <v>0</v>
       </c>
-      <c r="BF112" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG112" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH112" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI112" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ112" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK112" s="2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="113" spans="1:62" ht="128">
+    <row r="113" spans="1:64" ht="256">
       <c r="A113" s="2">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -17962,155 +17622,833 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="P113" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>0</v>
+      </c>
+      <c r="R113" s="2">
+        <v>0</v>
+      </c>
+      <c r="S113" s="2">
+        <v>0</v>
+      </c>
+      <c r="T113" s="2">
+        <v>0</v>
+      </c>
+      <c r="U113" s="2">
+        <v>0</v>
+      </c>
+      <c r="V113" s="2">
+        <v>0</v>
+      </c>
+      <c r="W113" s="2">
+        <v>0</v>
+      </c>
+      <c r="X113" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ113" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA113" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB113" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC113" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD113" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE113" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF113" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG113" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH113" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:64" ht="96">
+      <c r="A114" s="2">
+        <v>864</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="S114" s="2">
+        <v>0</v>
+      </c>
+      <c r="T114" s="2">
+        <v>0</v>
+      </c>
+      <c r="U114" s="2">
+        <v>0</v>
+      </c>
+      <c r="V114" s="2">
+        <v>0</v>
+      </c>
+      <c r="W114" s="2">
+        <v>0</v>
+      </c>
+      <c r="X114" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ114" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA114" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB114" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC114" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD114" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE114" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF114" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG114" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH114" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI114" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ114" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK114" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:64" ht="112">
+      <c r="A115" s="2">
+        <v>865</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="S115" s="2">
+        <v>0</v>
+      </c>
+      <c r="T115" s="2">
+        <v>0</v>
+      </c>
+      <c r="U115" s="2">
+        <v>0</v>
+      </c>
+      <c r="V115" s="2">
+        <v>0</v>
+      </c>
+      <c r="W115" s="2">
+        <v>0</v>
+      </c>
+      <c r="X115" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ115" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA115" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB115" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC115" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD115" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE115" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF115" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG115" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH115" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI115" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ115" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK115" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:64" ht="80">
+      <c r="A116" s="2">
+        <v>866</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="R116" s="2">
+        <v>0</v>
+      </c>
+      <c r="S116" s="2">
+        <v>0</v>
+      </c>
+      <c r="T116" s="2">
+        <v>0</v>
+      </c>
+      <c r="U116" s="2">
+        <v>0</v>
+      </c>
+      <c r="V116" s="2">
+        <v>0</v>
+      </c>
+      <c r="W116" s="2">
+        <v>0</v>
+      </c>
+      <c r="X116" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y116" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ116" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA116" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB116" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC116" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD116" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE116" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF116" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG116" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH116" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI116" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ116" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:64" ht="128">
+      <c r="A117" s="2">
+        <v>867</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="L113" s="2" t="s">
+      <c r="L117" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="M113" s="2" t="s">
+      <c r="M117" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2" t="s">
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="Q113" s="2">
-        <v>0</v>
-      </c>
-      <c r="R113" s="2">
-        <v>0</v>
-      </c>
-      <c r="S113" s="2">
-        <v>0</v>
-      </c>
-      <c r="T113" s="2">
-        <v>0</v>
-      </c>
-      <c r="U113" s="2">
-        <v>0</v>
-      </c>
-      <c r="V113" s="2">
-        <v>0</v>
-      </c>
-      <c r="W113" s="2">
-        <v>0</v>
-      </c>
-      <c r="X113" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y113" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY113" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ113" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA113" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB113" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC113" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD113" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE113" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF113" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG113" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH113" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI113" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ113" s="2">
+      <c r="Q117" s="2">
+        <v>0</v>
+      </c>
+      <c r="R117" s="2">
+        <v>0</v>
+      </c>
+      <c r="S117" s="2">
+        <v>0</v>
+      </c>
+      <c r="T117" s="2">
+        <v>0</v>
+      </c>
+      <c r="U117" s="2">
+        <v>0</v>
+      </c>
+      <c r="V117" s="2">
+        <v>0</v>
+      </c>
+      <c r="W117" s="2">
+        <v>0</v>
+      </c>
+      <c r="X117" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y117" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ117" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA117" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB117" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC117" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD117" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE117" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF117" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG117" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH117" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI117" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ117" s="2">
         <v>0</v>
       </c>
     </row>
@@ -18124,7 +18462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90B2A5C-1A40-A747-B0CA-E9435705956F}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -18171,7 +18509,7 @@
         <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:5">
